--- a/sample data/sample.xlsx
+++ b/sample data/sample.xlsx
@@ -20,36 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t xml:space="preserve">lot</t>
   </si>
   <si>
-    <t xml:space="preserve">step1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ1XX</t>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
   </si>
 </sst>
 </file>
@@ -59,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,6 +68,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -135,13 +136,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -161,84 +174,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/sample data/sample.xlsx
+++ b/sample data/sample.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ref" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t xml:space="preserve">lot</t>
   </si>
@@ -28,6 +29,9 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
@@ -35,14 +39,33 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cov~lkg08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp({A})-{B}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -74,8 +97,8 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -89,8 +112,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -136,25 +159,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -176,79 +203,95 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="7.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="25.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5" t="n">
+        <v>43466</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5" t="n">
+        <v>43467</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5" t="n">
+        <v>43468</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5" t="n">
+        <v>43469</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5" t="n">
+        <v>43470</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5" t="n">
+        <v>43475</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -259,4 +302,53 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sample data/sample.xlsx
+++ b/sample data/sample.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ref" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="pd_eval" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="a" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="b" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t xml:space="preserve">lot</t>
   </si>
@@ -56,7 +59,46 @@
     <t xml:space="preserve">cov</t>
   </si>
   <si>
-    <t xml:space="preserve">exp({A})-{B}</t>
+    <t xml:space="preserve">exp({A})-{B})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4 TK ADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5 OCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7 TK ADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2 TK ADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_rem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
   </si>
 </sst>
 </file>
@@ -159,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +224,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -203,10 +249,10 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +358,156 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="6" width="9.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <f aca="true">RAND()*10</f>
+        <v>0.779178449863754</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <f aca="true">RAND()*10</f>
+        <v>1.61634636128546</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <f aca="true">RAND()*10</f>
+        <v>3.49449121886974</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <f aca="true">RAND()*10</f>
+        <v>4.3932804974557</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <f aca="true">RAND()*10</f>
+        <v>8.25873101105386</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,24 +517,129 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
